--- a/input/disponibilidad.xlsx
+++ b/input/disponibilidad.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacLeod/Playground/chorario/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacLeod/Playground/chorario/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B72577-BD3D-6146-B0B8-CB29CC0C371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98950029-623C-C54F-A353-FE3F61578C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{EFBA48EC-8A65-FA46-83E5-DB0E0539F468}"/>
+    <workbookView xWindow="-13800" yWindow="-21140" windowWidth="25600" windowHeight="21140" xr2:uid="{3FACD0A0-EB9D-7C47-AA83-1EFDD708EF32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,55 +25,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="26">
   <si>
-    <t>dia</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MARISOL LOZANO</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>LUIS RENTERIA</t>
+  </si>
+  <si>
+    <t>DIEGO FLOREZ</t>
+  </si>
+  <si>
+    <t>ORLANDO ROMERO ROA</t>
+  </si>
+  <si>
+    <t>MEIBY CATALINA VERA SANCHEZ</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>MARLON PAOLO MONT MONT</t>
+  </si>
+  <si>
+    <t>MARIA DEISCY ROBAYO RUIZ</t>
+  </si>
+  <si>
+    <t>MARIA IVONNE GUERRERO GAMBA</t>
+  </si>
+  <si>
+    <t>JESUS MARINO BOGOTA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>FREDDY ALEXANDER CUELLAR CASTELLANOS</t>
+  </si>
+  <si>
+    <t>ELODIA QUINTANA PEDRAZA</t>
+  </si>
+  <si>
+    <t>DIANA MILENA PATIÑO BARRIGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA ANDREA GONZALEZ RAMOS				</t>
+  </si>
+  <si>
+    <t>ASTRID ZACIPA INFANTE</t>
+  </si>
+  <si>
+    <t>ANDRES GOMEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>ANDREA DEL PILAR PEREZ</t>
+  </si>
+  <si>
+    <t>hf</t>
   </si>
   <si>
     <t>hi</t>
   </si>
   <si>
-    <t>hf</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
+    <t>dia</t>
   </si>
   <si>
     <t>profesor</t>
-  </si>
-  <si>
-    <t>JOHN</t>
-  </si>
-  <si>
-    <t>PAUL</t>
-  </si>
-  <si>
-    <t>GEORGE</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>RINGO</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,223 +461,3182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E6006-ABA2-CD4A-81D1-FBB6A9CE8632}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEE35E5-B4E0-A34C-A326-D4DE63FA3FA0}">
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="D2">
-        <v>800</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>800</v>
+        <v>915</v>
       </c>
       <c r="D3">
-        <v>900</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>700</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="D5">
-        <v>900</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D7">
-        <v>900</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D8">
-        <v>800</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D9">
-        <v>900</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>700</v>
       </c>
       <c r="D10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="D11">
-        <v>900</v>
+        <v>959</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
       <c r="D12">
-        <v>1100</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="D13">
-        <v>1200</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D14">
-        <v>800</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>700</v>
+      </c>
+      <c r="D16">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>830</v>
+      </c>
+      <c r="D17">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>700</v>
+      </c>
+      <c r="D19">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>830</v>
+      </c>
+      <c r="D20">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1130</v>
+      </c>
+      <c r="D22">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>700</v>
+      </c>
+      <c r="D23">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>830</v>
+      </c>
+      <c r="D24">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1130</v>
+      </c>
+      <c r="D26">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>700</v>
+      </c>
+      <c r="D27">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>830</v>
+      </c>
+      <c r="D28">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1130</v>
+      </c>
+      <c r="D30">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>700</v>
+      </c>
+      <c r="D31">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>830</v>
+      </c>
+      <c r="D32">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1130</v>
+      </c>
+      <c r="D34">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>700</v>
+      </c>
+      <c r="D35">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>830</v>
+      </c>
+      <c r="D36">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1130</v>
+      </c>
+      <c r="D38">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>700</v>
+      </c>
+      <c r="D84" s="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>830</v>
+      </c>
+      <c r="D85" s="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>830</v>
+      </c>
+      <c r="D87">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>1000</v>
+      </c>
+      <c r="D88">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>1130</v>
+      </c>
+      <c r="D89">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>1815</v>
+      </c>
+      <c r="D90">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>1900</v>
+      </c>
+      <c r="D91">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>830</v>
+      </c>
+      <c r="D92">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1000</v>
+      </c>
+      <c r="D93">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1130</v>
+      </c>
+      <c r="D94">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1815</v>
+      </c>
+      <c r="D95">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1900</v>
+      </c>
+      <c r="D96">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1815</v>
+      </c>
+      <c r="D97">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>1900</v>
+      </c>
+      <c r="D98">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>2030</v>
+      </c>
+      <c r="D99">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1815</v>
+      </c>
+      <c r="D100">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>1900</v>
+      </c>
+      <c r="D101">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>2030</v>
+      </c>
+      <c r="D102">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>1815</v>
+      </c>
+      <c r="D103">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>1900</v>
+      </c>
+      <c r="D104">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>2030</v>
+      </c>
+      <c r="D105">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1815</v>
+      </c>
+      <c r="D106">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>1900</v>
+      </c>
+      <c r="D107">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2030</v>
+      </c>
+      <c r="D108">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1815</v>
+      </c>
+      <c r="D109">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1900</v>
+      </c>
+      <c r="D110">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2030</v>
+      </c>
+      <c r="D111">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>700</v>
+      </c>
+      <c r="D112">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>830</v>
+      </c>
+      <c r="D113">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>1000</v>
+      </c>
+      <c r="D114">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>1130</v>
+      </c>
+      <c r="D115">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>700</v>
+      </c>
+      <c r="D116">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>830</v>
+      </c>
+      <c r="D117">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>1000</v>
+      </c>
+      <c r="D118">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>1130</v>
+      </c>
+      <c r="D119">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>700</v>
+      </c>
+      <c r="D120">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>830</v>
+      </c>
+      <c r="D121">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>1000</v>
+      </c>
+      <c r="D122">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>1130</v>
+      </c>
+      <c r="D123">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>700</v>
+      </c>
+      <c r="D124">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>830</v>
+      </c>
+      <c r="D125">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>1000</v>
+      </c>
+      <c r="D126">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>1130</v>
+      </c>
+      <c r="D127">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>700</v>
+      </c>
+      <c r="D128">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>830</v>
+      </c>
+      <c r="D129">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1000</v>
+      </c>
+      <c r="D130">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1130</v>
+      </c>
+      <c r="D131">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>700</v>
+      </c>
+      <c r="D132">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>830</v>
+      </c>
+      <c r="D133">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>1000</v>
+      </c>
+      <c r="D134">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>1130</v>
+      </c>
+      <c r="D135">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>700</v>
+      </c>
+      <c r="D136">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>830</v>
+      </c>
+      <c r="D137">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>1000</v>
+      </c>
+      <c r="D138">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>1130</v>
+      </c>
+      <c r="D139">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>700</v>
+      </c>
+      <c r="D140">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>830</v>
+      </c>
+      <c r="D141">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+      <c r="D142">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>1130</v>
+      </c>
+      <c r="D143">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>700</v>
+      </c>
+      <c r="D144">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>830</v>
+      </c>
+      <c r="D145">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>1000</v>
+      </c>
+      <c r="D146">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>1130</v>
+      </c>
+      <c r="D147">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>800</v>
-      </c>
-      <c r="D15">
-        <v>900</v>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>700</v>
+      </c>
+      <c r="D163">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>1815</v>
+      </c>
+      <c r="D164">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>1945</v>
+      </c>
+      <c r="D165">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>1815</v>
+      </c>
+      <c r="D166">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>1945</v>
+      </c>
+      <c r="D167">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>1815</v>
+      </c>
+      <c r="D168">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>1945</v>
+      </c>
+      <c r="D169">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>1815</v>
+      </c>
+      <c r="D170">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>1945</v>
+      </c>
+      <c r="D171">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>1815</v>
+      </c>
+      <c r="D172">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>1945</v>
+      </c>
+      <c r="D173">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>1815</v>
+      </c>
+      <c r="D174">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>1945</v>
+      </c>
+      <c r="D175">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>1815</v>
+      </c>
+      <c r="D176">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>1945</v>
+      </c>
+      <c r="D177">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>1815</v>
+      </c>
+      <c r="D178">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>1945</v>
+      </c>
+      <c r="D179">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>1815</v>
+      </c>
+      <c r="D180">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>1945</v>
+      </c>
+      <c r="D181">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>1815</v>
+      </c>
+      <c r="D182">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>1945</v>
+      </c>
+      <c r="D183">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>700</v>
+      </c>
+      <c r="D184">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>830</v>
+      </c>
+      <c r="D185">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>1000</v>
+      </c>
+      <c r="D186">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>700</v>
+      </c>
+      <c r="D187">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>830</v>
+      </c>
+      <c r="D188">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>1000</v>
+      </c>
+      <c r="D189">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>700</v>
+      </c>
+      <c r="D190">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>830</v>
+      </c>
+      <c r="D191">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>1000</v>
+      </c>
+      <c r="D192">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>700</v>
+      </c>
+      <c r="D193">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>830</v>
+      </c>
+      <c r="D194">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>1000</v>
+      </c>
+      <c r="D195">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>700</v>
+      </c>
+      <c r="D196">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>830</v>
+      </c>
+      <c r="D197">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>1000</v>
+      </c>
+      <c r="D198">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>700</v>
+      </c>
+      <c r="D199">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>830</v>
+      </c>
+      <c r="D200">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>1000</v>
+      </c>
+      <c r="D201">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>700</v>
+      </c>
+      <c r="D202">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>830</v>
+      </c>
+      <c r="D203">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>1000</v>
+      </c>
+      <c r="D204">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>700</v>
+      </c>
+      <c r="D205">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>830</v>
+      </c>
+      <c r="D206">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>1000</v>
+      </c>
+      <c r="D207">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>700</v>
+      </c>
+      <c r="D208">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>830</v>
+      </c>
+      <c r="D209">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>1000</v>
+      </c>
+      <c r="D210">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>700</v>
+      </c>
+      <c r="D211">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>830</v>
+      </c>
+      <c r="D212">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1000</v>
+      </c>
+      <c r="D213">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>1430</v>
+      </c>
+      <c r="D214">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>1600</v>
+      </c>
+      <c r="D215">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>1645</v>
+      </c>
+      <c r="D216">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>1815</v>
+      </c>
+      <c r="D217">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>1945</v>
+      </c>
+      <c r="D218">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>1430</v>
+      </c>
+      <c r="D219">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>1600</v>
+      </c>
+      <c r="D220">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>1645</v>
+      </c>
+      <c r="D221">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>1815</v>
+      </c>
+      <c r="D222">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>1945</v>
+      </c>
+      <c r="D223">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>1945</v>
+      </c>
+      <c r="D224">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>1945</v>
+      </c>
+      <c r="D225">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>1945</v>
+      </c>
+      <c r="D226">
+        <v>2114</v>
       </c>
     </row>
   </sheetData>

--- a/input/disponibilidad.xlsx
+++ b/input/disponibilidad.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacLeod/Playground/chorario/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98950029-623C-C54F-A353-FE3F61578C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A27C43E-95EF-154A-8211-BADE81CDCAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13800" yWindow="-21140" windowWidth="25600" windowHeight="21140" xr2:uid="{3FACD0A0-EB9D-7C47-AA83-1EFDD708EF32}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{3FACD0A0-EB9D-7C47-AA83-1EFDD708EF32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="26">
   <si>
     <t>F</t>
   </si>
@@ -51,46 +51,7 @@
     <t>DIEGO FLOREZ</t>
   </si>
   <si>
-    <t>ORLANDO ROMERO ROA</t>
-  </si>
-  <si>
-    <t>MEIBY CATALINA VERA SANCHEZ</t>
-  </si>
-  <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>MARLON PAOLO MONT MONT</t>
-  </si>
-  <si>
-    <t>MARIA DEISCY ROBAYO RUIZ</t>
-  </si>
-  <si>
-    <t>MARIA IVONNE GUERRERO GAMBA</t>
-  </si>
-  <si>
-    <t>JESUS MARINO BOGOTA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>FREDDY ALEXANDER CUELLAR CASTELLANOS</t>
-  </si>
-  <si>
-    <t>ELODIA QUINTANA PEDRAZA</t>
-  </si>
-  <si>
-    <t>DIANA MILENA PATIÑO BARRIGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIANA ANDREA GONZALEZ RAMOS				</t>
-  </si>
-  <si>
-    <t>ASTRID ZACIPA INFANTE</t>
-  </si>
-  <si>
-    <t>ANDRES GOMEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>ANDREA DEL PILAR PEREZ</t>
   </si>
   <si>
     <t>hf</t>
@@ -104,12 +65,51 @@
   <si>
     <t>profesor</t>
   </si>
+  <si>
+    <t>ANDRES GOMEZ</t>
+  </si>
+  <si>
+    <t>ASTRID ZACIPA</t>
+  </si>
+  <si>
+    <t>ELODIA QUINTANA</t>
+  </si>
+  <si>
+    <t>FREDDY CUELLAR</t>
+  </si>
+  <si>
+    <t>ORLANDO ROMERO</t>
+  </si>
+  <si>
+    <t>MARIA GUERRERO</t>
+  </si>
+  <si>
+    <t>MARIA ROBAYO</t>
+  </si>
+  <si>
+    <t>MARLON MONT</t>
+  </si>
+  <si>
+    <t>MEIBY VERA</t>
+  </si>
+  <si>
+    <t>NELSY VARGAS</t>
+  </si>
+  <si>
+    <t>OSCAR REYES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA GONZALEZ				</t>
+  </si>
+  <si>
+    <t>DIANA PATIÑO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +120,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,15 +149,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B67C59C3-DC60-744E-9645-92561D1CA982}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,588 +472,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEE35E5-B4E0-A34C-A326-D4DE63FA3FA0}">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>915</v>
+        <v>700</v>
       </c>
       <c r="D2">
-        <v>1044</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>915</v>
+        <v>830</v>
       </c>
       <c r="D3">
-        <v>1044</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D5">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D6">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D7">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D8">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D9">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D10">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D11">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D12">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D14">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D15">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D16">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D17">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D18">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D19">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D20">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D21">
-        <v>1129</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="D22">
-        <v>1259</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D24">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D25">
-        <v>1129</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="D26">
-        <v>1259</v>
+        <v>959</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D28">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D29">
-        <v>1129</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="D30">
-        <v>1259</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D31">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D32">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D33">
-        <v>1129</v>
+        <v>829</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="D34">
-        <v>1259</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D35">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D36">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>1000</v>
-      </c>
-      <c r="D37">
-        <v>1129</v>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1944</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1130</v>
-      </c>
-      <c r="D38">
-        <v>1259</v>
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D39" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D40" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D41" s="1">
         <v>2159</v>
@@ -1051,41 +1061,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D42" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D43" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D44" s="1">
         <v>2159</v>
@@ -1093,41 +1103,41 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D45" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D46" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D47" s="1">
         <v>2159</v>
@@ -1135,41 +1145,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D48" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D49" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D50" s="1">
         <v>2159</v>
@@ -1177,41 +1187,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D51" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D52" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D53" s="1">
         <v>2159</v>
@@ -1219,41 +1229,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D54" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D55" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D56" s="1">
         <v>2159</v>
@@ -1261,41 +1271,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D57" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D58" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D59" s="1">
         <v>2159</v>
@@ -1303,41 +1313,41 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D60" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D61" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D62" s="1">
         <v>2159</v>
@@ -1345,41 +1355,41 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D63" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D64" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D65" s="1">
         <v>2159</v>
@@ -1387,41 +1397,41 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D66" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D67" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D68" s="1">
         <v>2159</v>
@@ -1429,41 +1439,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D69" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D70" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D71" s="1">
         <v>2159</v>
@@ -1471,41 +1481,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D72" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D73" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D74" s="1">
         <v>2159</v>
@@ -1513,41 +1523,41 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D75" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D76" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D77" s="1">
         <v>2159</v>
@@ -1555,41 +1565,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D78" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="D79" s="1">
-        <v>2159</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>2030</v>
+        <v>1900</v>
       </c>
       <c r="D80" s="1">
         <v>2159</v>
@@ -1597,16 +1607,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D81" s="1">
-        <v>1944</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1614,13 +1624,13 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="D82" s="1">
-        <v>2159</v>
+        <v>829</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1628,1253 +1638,1253 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D83" s="1">
-        <v>2159</v>
+        <v>959</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D84" s="1">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85">
         <v>830</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86">
         <v>1000</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>1129</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
       <c r="C87">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D87">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D88">
-        <v>1129</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89">
-        <v>1130</v>
+        <v>1900</v>
       </c>
       <c r="D89">
-        <v>1259</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D90">
-        <v>1944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="D91">
-        <v>2159</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>830</v>
+        <v>1130</v>
       </c>
       <c r="D92">
-        <v>959</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D93">
-        <v>1129</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
       <c r="C94">
-        <v>1130</v>
+        <v>1900</v>
       </c>
       <c r="D94">
-        <v>1259</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D95">
-        <v>1944</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>1900</v>
+        <v>830</v>
       </c>
       <c r="D96">
-        <v>2159</v>
+        <v>959</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D97">
-        <v>1944</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98">
-        <v>1900</v>
+        <v>1130</v>
       </c>
       <c r="D98">
-        <v>2159</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D99">
-        <v>2159</v>
+        <v>829</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D100">
-        <v>1944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="D101">
-        <v>2159</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>2030</v>
+        <v>1130</v>
       </c>
       <c r="D102">
-        <v>2159</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D103">
-        <v>1944</v>
+        <v>829</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
       <c r="C104">
-        <v>1900</v>
+        <v>830</v>
       </c>
       <c r="D104">
-        <v>2159</v>
+        <v>959</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2030</v>
+        <v>1000</v>
       </c>
       <c r="D105">
-        <v>2159</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>1815</v>
+        <v>1130</v>
       </c>
       <c r="D106">
-        <v>1944</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
       <c r="C107">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="D107">
-        <v>2159</v>
+        <v>829</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D108">
-        <v>2159</v>
+        <v>959</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D109">
-        <v>1944</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>1900</v>
+        <v>1130</v>
       </c>
       <c r="D110">
-        <v>2159</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D111">
-        <v>2159</v>
+        <v>829</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D112">
-        <v>829</v>
+        <v>959</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="D113">
-        <v>959</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="D114">
-        <v>1129</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="D115">
-        <v>1259</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D116">
-        <v>829</v>
+        <v>959</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="D117">
-        <v>959</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="D118">
-        <v>1129</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="D119">
-        <v>1259</v>
+        <v>829</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D120">
-        <v>829</v>
+        <v>959</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="D121">
-        <v>959</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="D122">
-        <v>1129</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="D123">
-        <v>1259</v>
+        <v>829</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D124">
-        <v>829</v>
+        <v>959</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="D125">
-        <v>959</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="D126">
-        <v>1129</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
       <c r="C127">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="D127">
-        <v>1259</v>
+        <v>829</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D128">
-        <v>829</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="D129">
-        <v>959</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="D130">
-        <v>1129</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>1130</v>
-      </c>
-      <c r="D131">
-        <v>1259</v>
+        <v>5</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1559</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
-      <c r="C132">
-        <v>700</v>
-      </c>
-      <c r="D132">
-        <v>829</v>
+      <c r="C132" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1729</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>830</v>
-      </c>
-      <c r="D133">
-        <v>959</v>
+      <c r="C133" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1814</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134">
-        <v>1000</v>
-      </c>
-      <c r="D134">
-        <v>1129</v>
+        <v>4</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1559</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135">
-        <v>1130</v>
-      </c>
-      <c r="D135">
-        <v>1259</v>
+        <v>4</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1729</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136">
-        <v>700</v>
-      </c>
-      <c r="D136">
-        <v>829</v>
+      <c r="C136" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1814</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137">
-        <v>830</v>
-      </c>
-      <c r="D137">
-        <v>959</v>
+        <v>3</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1559</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138">
-        <v>1000</v>
-      </c>
-      <c r="D138">
-        <v>1129</v>
+        <v>3</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1729</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139">
-        <v>1130</v>
-      </c>
-      <c r="D139">
-        <v>1259</v>
+        <v>3</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1814</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140">
-        <v>700</v>
-      </c>
-      <c r="D140">
-        <v>829</v>
+        <v>2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1559</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141">
-        <v>830</v>
-      </c>
-      <c r="D141">
-        <v>959</v>
+        <v>2</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1729</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142">
-        <v>1000</v>
-      </c>
-      <c r="D142">
-        <v>1129</v>
+        <v>2</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1814</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143">
-        <v>1130</v>
-      </c>
-      <c r="D143">
-        <v>1259</v>
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1559</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144">
-        <v>700</v>
-      </c>
-      <c r="D144">
-        <v>829</v>
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1729</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145">
-        <v>830</v>
-      </c>
-      <c r="D145">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1645</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1814</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D146">
-        <v>1129</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>1130</v>
+        <v>1815</v>
       </c>
       <c r="D147">
-        <v>1259</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
-      <c r="C148" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D148" s="1">
-        <v>1559</v>
+      <c r="C148">
+        <v>1945</v>
+      </c>
+      <c r="D148">
+        <v>2114</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D149" s="1">
-        <v>1729</v>
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>1815</v>
+      </c>
+      <c r="D149">
+        <v>2114</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="1">
-        <v>1645</v>
-      </c>
-      <c r="D150" s="1">
-        <v>1814</v>
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>1945</v>
+      </c>
+      <c r="D150">
+        <v>2114</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D151" s="1">
-        <v>1559</v>
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>1815</v>
+      </c>
+      <c r="D151">
+        <v>2114</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D152" s="1">
-        <v>1729</v>
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>1945</v>
+      </c>
+      <c r="D152">
+        <v>2114</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="1">
-        <v>1645</v>
-      </c>
-      <c r="D153" s="1">
-        <v>1814</v>
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>1815</v>
+      </c>
+      <c r="D153">
+        <v>2114</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1559</v>
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>1945</v>
+      </c>
+      <c r="D154">
+        <v>2114</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1729</v>
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>1815</v>
+      </c>
+      <c r="D155">
+        <v>2114</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1645</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1814</v>
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1945</v>
+      </c>
+      <c r="D156">
+        <v>2114</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D157" s="1">
-        <v>1559</v>
+        <v>5</v>
+      </c>
+      <c r="C157" s="2">
+        <v>830</v>
+      </c>
+      <c r="D157" s="2">
+        <v>959</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D158" s="1">
-        <v>1729</v>
+        <v>5</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1129</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1645</v>
-      </c>
-      <c r="D159" s="1">
-        <v>1814</v>
+        <v>5</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1130</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1259</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D160" s="1">
-        <v>1559</v>
+        <v>4</v>
+      </c>
+      <c r="C160" s="2">
+        <v>830</v>
+      </c>
+      <c r="D160" s="2">
+        <v>959</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D161" s="1">
-        <v>1729</v>
+        <v>4</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1129</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1">
-        <v>1645</v>
-      </c>
-      <c r="D162" s="1">
-        <v>1814</v>
+        <v>4</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1130</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1259</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163">
-        <v>700</v>
-      </c>
-      <c r="D163">
-        <v>829</v>
+        <v>3</v>
+      </c>
+      <c r="C163" s="2">
+        <v>830</v>
+      </c>
+      <c r="D163" s="2">
+        <v>959</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164">
-        <v>1815</v>
-      </c>
-      <c r="D164">
-        <v>2114</v>
+        <v>3</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1129</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165">
-        <v>1945</v>
-      </c>
-      <c r="D165">
-        <v>2114</v>
+        <v>3</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1130</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1259</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166">
-        <v>1815</v>
-      </c>
-      <c r="D166">
-        <v>2114</v>
+        <v>2</v>
+      </c>
+      <c r="C166" s="2">
+        <v>830</v>
+      </c>
+      <c r="D166" s="2">
+        <v>959</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167">
-        <v>1945</v>
-      </c>
-      <c r="D167">
-        <v>2114</v>
+        <v>2</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1129</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168">
-        <v>1815</v>
-      </c>
-      <c r="D168">
-        <v>2114</v>
+        <v>2</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1130</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1259</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169">
-        <v>1945</v>
-      </c>
-      <c r="D169">
-        <v>2114</v>
+        <v>0</v>
+      </c>
+      <c r="C169" s="2">
+        <v>830</v>
+      </c>
+      <c r="D169" s="2">
+        <v>959</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
-      </c>
-      <c r="C170">
-        <v>1815</v>
-      </c>
-      <c r="D170">
-        <v>2114</v>
+        <v>0</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1129</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
-      </c>
-      <c r="C171">
-        <v>1945</v>
-      </c>
-      <c r="D171">
-        <v>2114</v>
+        <v>0</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1130</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1259</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C172">
         <v>1815</v>
@@ -2885,10 +2895,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C173">
         <v>1945</v>
@@ -2899,10 +2909,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174">
         <v>1815</v>
@@ -2913,10 +2923,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175">
         <v>1945</v>
@@ -2927,10 +2937,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176">
         <v>1815</v>
@@ -2941,10 +2951,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>1945</v>
@@ -2955,10 +2965,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>1815</v>
@@ -2969,10 +2979,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179">
         <v>1945</v>
@@ -2983,10 +2993,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>1815</v>
@@ -2997,10 +3007,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C181">
         <v>1945</v>
@@ -3011,212 +3021,212 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="C182" s="2">
         <v>1815</v>
       </c>
-      <c r="D182">
-        <v>2114</v>
+      <c r="D182" s="2">
+        <v>1944</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B183" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183">
-        <v>1945</v>
-      </c>
-      <c r="D183">
-        <v>2114</v>
+        <v>5</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
-      <c r="C184">
-        <v>700</v>
-      </c>
-      <c r="D184">
-        <v>829</v>
+      <c r="C184" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185">
-        <v>830</v>
-      </c>
-      <c r="D185">
-        <v>959</v>
+        <v>4</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1815</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1944</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186">
-        <v>1000</v>
-      </c>
-      <c r="D186">
-        <v>1129</v>
+        <v>4</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B187" t="s">
         <v>4</v>
       </c>
-      <c r="C187">
-        <v>700</v>
-      </c>
-      <c r="D187">
-        <v>829</v>
+      <c r="C187" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188">
-        <v>830</v>
-      </c>
-      <c r="D188">
-        <v>959</v>
+        <v>3</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1815</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1944</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189">
-        <v>1000</v>
-      </c>
-      <c r="D189">
-        <v>1129</v>
+        <v>3</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
-      <c r="C190">
-        <v>700</v>
-      </c>
-      <c r="D190">
-        <v>829</v>
+      <c r="C190" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191">
-        <v>830</v>
-      </c>
-      <c r="D191">
-        <v>959</v>
+        <v>2</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1815</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1944</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192">
-        <v>1000</v>
-      </c>
-      <c r="D192">
-        <v>1129</v>
+        <v>2</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
       </c>
-      <c r="C193">
-        <v>700</v>
-      </c>
-      <c r="D193">
-        <v>829</v>
+      <c r="C193" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194">
-        <v>830</v>
-      </c>
-      <c r="D194">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1815</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1944</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
-      </c>
-      <c r="C195">
-        <v>1000</v>
-      </c>
-      <c r="D195">
-        <v>1129</v>
+        <v>0</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
       </c>
-      <c r="C196">
-        <v>700</v>
-      </c>
-      <c r="D196">
-        <v>829</v>
+      <c r="C196" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2159</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3224,13 +3234,13 @@
         <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C197">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D197">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3238,195 +3248,195 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C198">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D198">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D199">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D200">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D201">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B202" t="s">
         <v>4</v>
       </c>
       <c r="C202">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D202">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D203">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D204">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D205">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D206">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D207">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
       </c>
       <c r="C208">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D208">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C209">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D209">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C210">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D210">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
         <v>0</v>
       </c>
       <c r="C211">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D211">
-        <v>829</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,13 +3444,13 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C212">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D212">
-        <v>959</v>
+        <v>829</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3448,194 +3458,376 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D213">
-        <v>1129</v>
+        <v>959</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
       <c r="C214">
-        <v>1430</v>
+        <v>1000</v>
       </c>
       <c r="D214">
-        <v>1559</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="D215">
-        <v>1729</v>
+        <v>829</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216">
-        <v>1645</v>
+        <v>830</v>
       </c>
       <c r="D216">
-        <v>1814</v>
+        <v>959</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D217">
-        <v>2114</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C218">
-        <v>1945</v>
+        <v>700</v>
       </c>
       <c r="D218">
-        <v>2114</v>
+        <v>829</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219">
-        <v>1430</v>
+        <v>830</v>
       </c>
       <c r="D219">
-        <v>1559</v>
+        <v>959</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="D220">
-        <v>1729</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>1645</v>
+        <v>700</v>
       </c>
       <c r="D221">
-        <v>1814</v>
+        <v>829</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C222">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D222">
-        <v>2114</v>
+        <v>959</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C223">
-        <v>1945</v>
+        <v>1000</v>
       </c>
       <c r="D223">
-        <v>2114</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>1945</v>
+        <v>700</v>
       </c>
       <c r="D224">
-        <v>2114</v>
+        <v>829</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C225">
-        <v>1945</v>
+        <v>830</v>
       </c>
       <c r="D225">
-        <v>2114</v>
+        <v>959</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>1000</v>
+      </c>
+      <c r="D226">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>1</v>
       </c>
-      <c r="B226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226">
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>1430</v>
+      </c>
+      <c r="D227">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>1600</v>
+      </c>
+      <c r="D228">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>1645</v>
+      </c>
+      <c r="D229">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>1815</v>
+      </c>
+      <c r="D230">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
         <v>1945</v>
       </c>
-      <c r="D226">
+      <c r="D231">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>1430</v>
+      </c>
+      <c r="D232">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233">
+        <v>1600</v>
+      </c>
+      <c r="D233">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>1645</v>
+      </c>
+      <c r="D234">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>1815</v>
+      </c>
+      <c r="D235">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>1945</v>
+      </c>
+      <c r="D236">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>1945</v>
+      </c>
+      <c r="D237">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>1945</v>
+      </c>
+      <c r="D238">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>1945</v>
+      </c>
+      <c r="D239">
         <v>2114</v>
       </c>
     </row>
